--- a/Rotterdam_HS_Data.xlsx
+++ b/Rotterdam_HS_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3dd903d477a9e4d/Python/Python Projects/TIL_Programming/TIL6022_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCC639C-0BAE-4C4A-9B37-5FEA04753E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2FCC639C-0BAE-4C4A-9B37-5FEA04753E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7FC844-9432-415E-924E-AD0D3FEAA7AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{109F24C2-18B2-45E8-B804-DC25DB468E58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Station</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>11.0</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>21.2</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +545,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -546,6 +558,9 @@
       </c>
       <c r="B7" t="s">
         <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
